--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\eimerno\Documents\Python Scripts\Interpolation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D69EDBD-ECF5-4651-816D-9270785D4A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7F982C-9035-4FDD-8D0C-155E30308775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48060" yWindow="765" windowWidth="17280" windowHeight="8970" xr2:uid="{F98FD869-FB87-4CB8-89A9-501AB633B3B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F98FD869-FB87-4CB8-89A9-501AB633B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,529 +378,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 micron</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$13:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.3333333400000002E-8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.66666667E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8333333450000005E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.379</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-78BA-4D88-9BCE-B71252F68E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>5 micron</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$20:$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>29999999.939999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5999999.9879999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1714285.7108571427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$20:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.744</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.226</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-78BA-4D88-9BCE-B71252F68E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>10 micron</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$27:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>29999999.939999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5999999.9879999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1714285.7108571427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$27:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.2149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.181</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8620000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-78BA-4D88-9BCE-B71252F68E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>15 micron</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$33:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>29999999.939999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5999999.9879999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1714285.7108571427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$33:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.952</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.78</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-78BA-4D88-9BCE-B71252F68E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>24.6 micron</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$39:$B$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>29999999.939999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5999999.9879999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1714285.7108571427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$39:$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.6040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6260000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.109</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-78BA-4D88-9BCE-B71252F68E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>50.2 micron</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$45:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>29999999.939999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5999999.9879999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1714285.7108571427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$45:$C$47</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.7350000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7329999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-78BA-4D88-9BCE-B71252F68E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>99.1 micron</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$51:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>29999999.939999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5999999.9879999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1714285.7108571427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$51:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.5350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4540000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-78BA-4D88-9BCE-B71252F68E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -911,12 +388,636 @@
         </c:dLbls>
         <c:axId val="249697776"/>
         <c:axId val="249707760"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>2 micron</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$13:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3.3333333400000002E-8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.66666667E-7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.8333333450000005E-7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$13:$C$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.59799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.379</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-78BA-4D88-9BCE-B71252F68E7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>5 micron</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$20:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>29999999.939999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5999999.9879999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1714285.7108571427</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$20:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1.744</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.6779999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.226</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-78BA-4D88-9BCE-B71252F68E7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>10 micron</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$27:$B$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>29999999.939999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5999999.9879999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1714285.7108571427</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$27:$C$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>4.2149999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.181</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.8620000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-78BA-4D88-9BCE-B71252F68E7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>15 micron</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$33:$B$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>29999999.939999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5999999.9879999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1714285.7108571427</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$33:$C$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>4.96</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.952</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.78</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-78BA-4D88-9BCE-B71252F68E7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>24.6 micron</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$39:$B$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>29999999.939999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5999999.9879999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1714285.7108571427</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$39:$C$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>5.6040000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.6260000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.109</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-78BA-4D88-9BCE-B71252F68E7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>50.2 micron</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$45:$B$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>29999999.939999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5999999.9879999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1714285.7108571427</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$45:$C$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>6.7350000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.7450000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.7329999999999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-78BA-4D88-9BCE-B71252F68E7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>99.1 micron</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$51:$B$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>29999999.939999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5999999.9879999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1714285.7108571427</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$51:$C$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>8.5350000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.5670000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.4540000000000006</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-78BA-4D88-9BCE-B71252F68E7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="249697776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -955,7 +1056,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL"/>
-                  <a:t>Flow rate [m3/s]</a:t>
+                  <a:t>Flow rate [s/m3]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -989,7 +1090,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1027,7 +1128,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="249707760"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1.0000000000000006E-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -3417,15 +3518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100965</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>544830</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3440,8 +3541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4291965" y="6749415"/>
-          <a:ext cx="8900160" cy="1524000"/>
+          <a:off x="4364355" y="8115300"/>
+          <a:ext cx="8905875" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4016,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9097FE72-A830-4444-B08D-05159E36A4FB}">
   <dimension ref="A4:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
